--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t>Create country</t>
   </si>
@@ -27,6 +27,15 @@
   </si>
   <si>
     <t>FAILED</t>
+  </si>
+  <si>
+    <t>States testing with JDBC</t>
+  </si>
+  <si>
+    <t>Login with valid username and password</t>
+  </si>
+  <si>
+    <t>Create a country</t>
   </si>
 </sst>
 </file>
@@ -71,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -99,6 +108,83 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
